--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.1346003333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.403801</v>
+      </c>
+      <c r="I2">
+        <v>0.009651054304565105</v>
+      </c>
+      <c r="J2">
+        <v>0.009651054304565105</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.442371333333333</v>
-      </c>
-      <c r="H2">
-        <v>4.327114</v>
-      </c>
-      <c r="I2">
-        <v>0.03522044016446201</v>
-      </c>
-      <c r="J2">
-        <v>0.03522044016446201</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.05763379294688889</v>
+        <v>0.002488132028444445</v>
       </c>
       <c r="R2">
-        <v>0.518704136522</v>
+        <v>0.022393188256</v>
       </c>
       <c r="S2">
-        <v>0.0001871942067520925</v>
+        <v>1.568491208591141E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001871942067520925</v>
+        <v>1.56849120859114E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H3">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J3">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.04426829938177777</v>
+        <v>0.004131063697111112</v>
       </c>
       <c r="R3">
-        <v>0.398414694436</v>
+        <v>0.037179573274</v>
       </c>
       <c r="S3">
-        <v>0.000143783165454207</v>
+        <v>2.604177357541487E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001437831654542071</v>
+        <v>2.604177357541486E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.442371333333333</v>
+        <v>0.1346003333333333</v>
       </c>
       <c r="H4">
-        <v>4.327114</v>
+        <v>0.403801</v>
       </c>
       <c r="I4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="J4">
-        <v>0.03522044016446201</v>
+        <v>0.009651054304565105</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>10.74184991878533</v>
+        <v>1.524348730133223</v>
       </c>
       <c r="R4">
-        <v>96.67664926906801</v>
+        <v>13.719138571199</v>
       </c>
       <c r="S4">
-        <v>0.03488946279225572</v>
+        <v>0.00960932761890378</v>
       </c>
       <c r="T4">
-        <v>0.03488946279225572</v>
+        <v>0.009609327618903778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>33.994191</v>
       </c>
       <c r="I5">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J5">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.4527761841936667</v>
+        <v>0.2094646506773334</v>
       </c>
       <c r="R5">
-        <v>4.074985657743</v>
+        <v>1.885181856096</v>
       </c>
       <c r="S5">
-        <v>0.001470614275109027</v>
+        <v>0.001320442240773749</v>
       </c>
       <c r="T5">
-        <v>0.001470614275109027</v>
+        <v>0.001320442240773749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>33.994191</v>
       </c>
       <c r="I6">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J6">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
         <v>0.3477756824593334</v>
@@ -818,10 +818,10 @@
         <v>3.129981142134</v>
       </c>
       <c r="S6">
-        <v>0.001129573288116494</v>
+        <v>0.002192339852802261</v>
       </c>
       <c r="T6">
-        <v>0.001129573288116495</v>
+        <v>0.002192339852802261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>33.994191</v>
       </c>
       <c r="I7">
-        <v>0.2766948987373093</v>
+        <v>0.8124788779145131</v>
       </c>
       <c r="J7">
-        <v>0.2766948987373092</v>
+        <v>0.8124788779145132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>84.38892477353801</v>
+        <v>128.3280672478677</v>
       </c>
       <c r="R7">
-        <v>759.5003229618421</v>
+        <v>1154.952605230809</v>
       </c>
       <c r="S7">
-        <v>0.2740947111740838</v>
+        <v>0.8089660958209371</v>
       </c>
       <c r="T7">
-        <v>0.2740947111740837</v>
+        <v>0.8089660958209371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H8">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I8">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J8">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>1.125963466171556</v>
+        <v>0.04585656640000001</v>
       </c>
       <c r="R8">
-        <v>10.133671195544</v>
+        <v>0.4127090976</v>
       </c>
       <c r="S8">
-        <v>0.003657122446826547</v>
+        <v>0.0002890747775130851</v>
       </c>
       <c r="T8">
-        <v>0.003657122446826547</v>
+        <v>0.0002890747775130851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H9">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I9">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J9">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>0.8648482993191111</v>
+        <v>0.07613599060000001</v>
       </c>
       <c r="R9">
-        <v>7.783634693872</v>
+        <v>0.6852239154</v>
       </c>
       <c r="S9">
-        <v>0.002809021983007913</v>
+        <v>0.0004799529548604262</v>
       </c>
       <c r="T9">
-        <v>0.002809021983007913</v>
+        <v>0.0004799529548604261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.17890933333333</v>
+        <v>2.4807</v>
       </c>
       <c r="H10">
-        <v>84.536728</v>
+        <v>7.4421</v>
       </c>
       <c r="I10">
-        <v>0.6880846610982287</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="J10">
-        <v>0.6880846610982286</v>
+        <v>0.1778700677809217</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>209.8583131392374</v>
+        <v>28.09392667310001</v>
       </c>
       <c r="R10">
-        <v>1888.724818253136</v>
+        <v>252.8453400579</v>
       </c>
       <c r="S10">
-        <v>0.6816185166683942</v>
+        <v>0.1771010400485482</v>
       </c>
       <c r="T10">
-        <v>0.6816185166683942</v>
+        <v>0.1771010400485482</v>
       </c>
     </row>
   </sheetData>
